--- a/calculations for diffusion-binding model 2022-07-21.xlsx
+++ b/calculations for diffusion-binding model 2022-07-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caltech-my.sharepoint.com/personal/lester_caltech_edu/Documents/CCH-Most HAL Docs/Documents/PAPERS/Nichols Aaron SSRIs/current production model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{31C36842-A1C7-4B6C-8770-638F31F0EAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33B4DC45-D9B2-4C65-AEF3-F60E546EC97D}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{31C36842-A1C7-4B6C-8770-638F31F0EAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF3E6136-6AB8-4613-8E8D-9E2E92A48EED}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="772" windowWidth="18233" windowHeight="11873" xr2:uid="{6AA27DD1-87A2-4F0A-9C01-C17F7AB84E35}"/>
+    <workbookView xWindow="1210" yWindow="-18780" windowWidth="18230" windowHeight="17770" xr2:uid="{6AA27DD1-87A2-4F0A-9C01-C17F7AB84E35}"/>
   </bookViews>
   <sheets>
     <sheet name="fluoxetine_neurons" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
   <si>
     <t xml:space="preserve">sphere volume </t>
   </si>
@@ -537,6 +537,9 @@
   </si>
   <si>
     <t>1st-order rate constants</t>
+  </si>
+  <si>
+    <t>membrane barrier</t>
   </si>
 </sst>
 </file>
@@ -809,6 +812,14 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,14 +829,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1146,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9B0C5A-3157-4FF4-A5E0-70083F4A4490}">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1158,10 +1161,10 @@
     <col min="2" max="2" width="8.59765625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="3.53125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.06640625" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13.3984375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="10.73046875" customWidth="1"/>
-    <col min="8" max="8" width="11.06640625" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.06640625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11.9296875" customWidth="1"/>
     <col min="10" max="10" width="9.46484375" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" hidden="1" customWidth="1"/>
@@ -1187,7 +1190,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="7" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:20" s="7" customFormat="1" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="38" t="s">
         <v>59</v>
       </c>
@@ -1249,7 +1252,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="7" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="25"/>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -1301,7 +1304,7 @@
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="47" t="s">
         <v>69</v>
       </c>
       <c r="B5" t="s">
@@ -1336,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L37" si="0">H5/(I5*J5)</f>
+        <f t="shared" ref="L5:L29" si="0">H5/(I5*J5)</f>
         <v>0.2</v>
       </c>
       <c r="M5" s="41">
@@ -1349,7 +1352,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A6" s="44"/>
+      <c r="A6" s="48"/>
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E6:E37" si="4">(4/3)*3.14159*D6^3</f>
+        <f t="shared" ref="E6:E29" si="4">(4/3)*3.14159*D6^3</f>
         <v>4.1887866666666662</v>
       </c>
       <c r="F6" s="41">
@@ -1366,11 +1369,11 @@
         <v>3.665188333333333</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G6:G37" si="5">4*3.14159*D6^2</f>
+        <f t="shared" ref="G6:G29" si="5">4*3.14159*D6^2</f>
         <v>12.56636</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H37" si="6">H$4</f>
+        <f t="shared" ref="H6:H29" si="6">H$4</f>
         <v>0.2</v>
       </c>
       <c r="I6">
@@ -1396,7 +1399,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A7" s="44"/>
+      <c r="A7" s="48"/>
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>14.137154999999998</v>
       </c>
       <c r="F7" s="41">
-        <f t="shared" ref="F7:F37" si="7">E7-E6</f>
+        <f t="shared" ref="F7:F29" si="7">E7-E6</f>
         <v>9.948368333333331</v>
       </c>
       <c r="G7" s="3">
@@ -1443,7 +1446,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A8" s="44"/>
+      <c r="A8" s="48"/>
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1490,7 +1493,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A9" s="44"/>
+      <c r="A9" s="48"/>
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -1537,7 +1540,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A10" s="44"/>
+      <c r="A10" s="48"/>
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -1584,7 +1587,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A11" s="44"/>
+      <c r="A11" s="48"/>
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -1631,7 +1634,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A12" s="44"/>
+      <c r="A12" s="48"/>
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1678,7 +1681,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A13" s="44"/>
+      <c r="A13" s="48"/>
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -1725,7 +1728,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A14" s="44"/>
+      <c r="A14" s="48"/>
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -1772,7 +1775,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A15" s="44"/>
+      <c r="A15" s="48"/>
       <c r="B15" t="s">
         <v>40</v>
       </c>
@@ -1818,7 +1821,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A16" s="44"/>
+      <c r="A16" s="48"/>
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -1868,7 +1871,7 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A17" s="44"/>
+      <c r="A17" s="48"/>
       <c r="B17" t="s">
         <v>41</v>
       </c>
@@ -1915,7 +1918,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A18" s="44"/>
+      <c r="A18" s="48"/>
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -1966,7 +1969,7 @@
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="45"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="13" t="s">
         <v>49</v>
       </c>
@@ -2060,7 +2063,7 @@
         <f t="shared" si="0"/>
         <v>4.8095857948277329E-6</v>
       </c>
-      <c r="M20" s="48">
+      <c r="M20" s="45">
         <f>G20*L20/C$4</f>
         <v>6.8084548566594164E-3</v>
       </c>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="21" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="26" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -2108,7 +2111,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="49">
+      <c r="M21" s="46">
         <f>M20</f>
         <v>6.8084548566594164E-3</v>
       </c>
@@ -2124,7 +2127,7 @@
       <c r="T21" s="23"/>
     </row>
     <row r="22" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="47" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -2170,7 +2173,7 @@
         <v>324.948298989899</v>
       </c>
       <c r="N22" s="13">
-        <f t="shared" ref="N22:N37" si="8">L22/C$4</f>
+        <f t="shared" ref="N22:N29" si="8">L22/C$4</f>
         <v>0.4</v>
       </c>
       <c r="O22" s="16"/>
@@ -2181,7 +2184,7 @@
       <c r="T22" s="16"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A23" s="44"/>
+      <c r="A23" s="48"/>
       <c r="B23" t="s">
         <v>51</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>0.2</v>
       </c>
       <c r="M23" s="41">
-        <f t="shared" ref="M23:M37" si="9">G23*L23/C$4</f>
+        <f t="shared" ref="M23:M29" si="9">G23*L23/C$4</f>
         <v>363.16780399999999</v>
       </c>
       <c r="N23">
@@ -2231,7 +2234,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A24" s="44"/>
+      <c r="A24" s="48"/>
       <c r="B24" t="s">
         <v>29</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>0.5</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:D37" si="10">D23+C$4</f>
+        <f t="shared" ref="D24:D29" si="10">D23+C$4</f>
         <v>9</v>
       </c>
       <c r="E24" s="2">
@@ -2281,7 +2284,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A25" s="44"/>
+      <c r="A25" s="48"/>
       <c r="B25" t="s">
         <v>42</v>
       </c>
@@ -2331,7 +2334,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A26" s="44"/>
+      <c r="A26" s="48"/>
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -2381,7 +2384,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A27" s="44"/>
+      <c r="A27" s="48"/>
       <c r="B27" t="s">
         <v>43</v>
       </c>
@@ -2431,7 +2434,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A28" s="44"/>
+      <c r="A28" s="48"/>
       <c r="B28" t="s">
         <v>31</v>
       </c>
@@ -2481,7 +2484,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A29" s="44"/>
+      <c r="A29" s="49"/>
       <c r="B29" t="s">
         <v>44</v>
       </c>
@@ -2530,419 +2533,16 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A30" s="44"/>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30">
-        <v>0.5</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="4"/>
-        <v>7238.223359999999</v>
-      </c>
-      <c r="F30" s="41">
-        <f t="shared" si="7"/>
-        <v>867.60243833333334</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="5"/>
-        <v>1809.55584</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="6"/>
-        <v>0.2</v>
-      </c>
-      <c r="I30" s="11">
-        <v>1</v>
-      </c>
-      <c r="J30" s="11">
-        <v>1</v>
-      </c>
-      <c r="K30" s="17">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="M30" s="41">
-        <f t="shared" si="9"/>
-        <v>723.82233600000006</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="8"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A31" s="44"/>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31">
-        <v>0.5</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="10"/>
-        <v>12.5</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="4"/>
-        <v>8181.2239583333321</v>
-      </c>
-      <c r="F31" s="41">
-        <f t="shared" si="7"/>
-        <v>943.00059833333307</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="5"/>
-        <v>1963.4937499999999</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="6"/>
-        <v>0.2</v>
-      </c>
-      <c r="I31" s="11">
-        <v>1</v>
-      </c>
-      <c r="J31" s="11">
-        <v>1</v>
-      </c>
-      <c r="K31" s="17">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="M31" s="41">
-        <f t="shared" si="9"/>
-        <v>785.39750000000004</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="8"/>
-        <v>0.4</v>
-      </c>
-    </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A32" s="44"/>
       <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32">
-        <v>0.5</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="4"/>
-        <v>9202.764306666666</v>
-      </c>
-      <c r="F32" s="41">
-        <f t="shared" si="7"/>
-        <v>1021.5403483333339</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" si="5"/>
-        <v>2123.7148400000001</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="6"/>
-        <v>0.2</v>
-      </c>
-      <c r="I32" s="11">
-        <v>1</v>
-      </c>
-      <c r="J32" s="11">
-        <v>1</v>
-      </c>
-      <c r="K32" s="17">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="M32" s="41">
-        <f t="shared" si="9"/>
-        <v>849.48593600000004</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="8"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A33" s="44"/>
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33">
-        <v>0.5</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="10"/>
-        <v>13.5</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="4"/>
-        <v>10305.985994999999</v>
-      </c>
-      <c r="F33" s="41">
-        <f t="shared" si="7"/>
-        <v>1103.2216883333331</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" si="5"/>
-        <v>2290.21911</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="6"/>
-        <v>0.2</v>
-      </c>
-      <c r="I33" s="11">
-        <v>1</v>
-      </c>
-      <c r="J33" s="11">
-        <v>1</v>
-      </c>
-      <c r="K33" s="17">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="M33" s="41">
-        <f t="shared" si="9"/>
-        <v>916.08764400000007</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="8"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A34" s="44"/>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34">
-        <v>0.5</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="4"/>
-        <v>11494.030613333332</v>
-      </c>
-      <c r="F34" s="41">
-        <f t="shared" si="7"/>
-        <v>1188.0446183333333</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="5"/>
-        <v>2463.0065599999998</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="6"/>
-        <v>0.2</v>
-      </c>
-      <c r="I34" s="11">
-        <v>1</v>
-      </c>
-      <c r="J34" s="11">
-        <v>1</v>
-      </c>
-      <c r="K34" s="17">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="M34" s="41">
-        <f t="shared" si="9"/>
-        <v>985.20262400000001</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="8"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A35" s="44"/>
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35">
-        <v>0.5</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="10"/>
-        <v>14.5</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="4"/>
-        <v>12770.039751666665</v>
-      </c>
-      <c r="F35" s="41">
-        <f t="shared" si="7"/>
-        <v>1276.0091383333329</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="5"/>
-        <v>2642.07719</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="6"/>
-        <v>0.2</v>
-      </c>
-      <c r="I35" s="11">
-        <v>1</v>
-      </c>
-      <c r="J35" s="11">
-        <v>1</v>
-      </c>
-      <c r="K35" s="17">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="M35" s="41">
-        <f t="shared" si="9"/>
-        <v>1056.830876</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="8"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A36" s="44"/>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36">
-        <v>0.5</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="4"/>
-        <v>14137.154999999999</v>
-      </c>
-      <c r="F36" s="41">
-        <f t="shared" si="7"/>
-        <v>1367.1152483333335</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" si="5"/>
-        <v>2827.431</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="6"/>
-        <v>0.2</v>
-      </c>
-      <c r="I36" s="11">
-        <v>1</v>
-      </c>
-      <c r="J36" s="11">
-        <v>1</v>
-      </c>
-      <c r="K36" s="17">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="M36" s="41">
-        <f t="shared" si="9"/>
-        <v>1130.9724000000001</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="8"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A37" s="45"/>
-      <c r="B37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37">
-        <v>0.5</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="10"/>
-        <v>15.5</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="4"/>
-        <v>15598.517948333332</v>
-      </c>
-      <c r="F37" s="41">
-        <f t="shared" si="7"/>
-        <v>1461.3629483333334</v>
-      </c>
-      <c r="G37" s="3">
-        <f t="shared" si="5"/>
-        <v>3019.06799</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="6"/>
-        <v>0.2</v>
-      </c>
-      <c r="I37" s="11">
-        <v>1</v>
-      </c>
-      <c r="J37" s="11">
-        <v>1</v>
-      </c>
-      <c r="K37" s="17">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="M37" s="41">
-        <f t="shared" si="9"/>
-        <v>1207.6271960000001</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="8"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="22">
-        <f>SUM(F5:F19)</f>
-        <v>1763.6124419189018</v>
-      </c>
+      <c r="F32" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A5:A19"/>
-    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="A22:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -3106,7 +2706,7 @@
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="47" t="s">
         <v>69</v>
       </c>
       <c r="B5" t="s">
@@ -3154,7 +2754,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A6" s="44"/>
+      <c r="A6" s="48"/>
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -3201,7 +2801,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A7" s="44"/>
+      <c r="A7" s="48"/>
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -3248,7 +2848,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A8" s="44"/>
+      <c r="A8" s="48"/>
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -3295,7 +2895,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A9" s="44"/>
+      <c r="A9" s="48"/>
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -3342,7 +2942,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A10" s="44"/>
+      <c r="A10" s="48"/>
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -3389,7 +2989,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A11" s="44"/>
+      <c r="A11" s="48"/>
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -3436,7 +3036,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A12" s="44"/>
+      <c r="A12" s="48"/>
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -3483,7 +3083,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A13" s="44"/>
+      <c r="A13" s="48"/>
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -3530,7 +3130,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A14" s="44"/>
+      <c r="A14" s="48"/>
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -3577,7 +3177,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A15" s="44"/>
+      <c r="A15" s="48"/>
       <c r="B15" t="s">
         <v>40</v>
       </c>
@@ -3623,7 +3223,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A16" s="44"/>
+      <c r="A16" s="48"/>
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -3673,7 +3273,7 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A17" s="44"/>
+      <c r="A17" s="48"/>
       <c r="B17" t="s">
         <v>41</v>
       </c>
@@ -3720,7 +3320,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A18" s="44"/>
+      <c r="A18" s="48"/>
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -3771,7 +3371,7 @@
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="45"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="13" t="s">
         <v>49</v>
       </c>
@@ -3865,7 +3465,7 @@
         <f t="shared" si="0"/>
         <v>4.8095857948277329E-5</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="43">
         <f>G20*L20/C$4</f>
         <v>6.8084548566594169E-2</v>
       </c>
@@ -3913,7 +3513,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="47">
+      <c r="M21" s="44">
         <f>M20</f>
         <v>6.8084548566594169E-2</v>
       </c>
@@ -3929,7 +3529,7 @@
       <c r="T21" s="23"/>
     </row>
     <row r="22" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="47" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -3986,7 +3586,7 @@
       <c r="T22" s="16"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A23" s="44"/>
+      <c r="A23" s="48"/>
       <c r="B23" t="s">
         <v>51</v>
       </c>
@@ -4036,7 +3636,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A24" s="44"/>
+      <c r="A24" s="48"/>
       <c r="B24" t="s">
         <v>29</v>
       </c>
@@ -4086,7 +3686,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A25" s="44"/>
+      <c r="A25" s="48"/>
       <c r="B25" t="s">
         <v>42</v>
       </c>
@@ -4136,7 +3736,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A26" s="44"/>
+      <c r="A26" s="48"/>
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -4186,7 +3786,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A27" s="44"/>
+      <c r="A27" s="48"/>
       <c r="B27" t="s">
         <v>43</v>
       </c>
@@ -4236,7 +3836,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A28" s="44"/>
+      <c r="A28" s="48"/>
       <c r="B28" t="s">
         <v>31</v>
       </c>
@@ -4286,7 +3886,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A29" s="44"/>
+      <c r="A29" s="48"/>
       <c r="B29" t="s">
         <v>44</v>
       </c>
@@ -4336,7 +3936,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A30" s="44"/>
+      <c r="A30" s="48"/>
       <c r="B30" t="s">
         <v>32</v>
       </c>
@@ -4386,7 +3986,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A31" s="44"/>
+      <c r="A31" s="48"/>
       <c r="B31" t="s">
         <v>45</v>
       </c>
@@ -4436,7 +4036,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A32" s="44"/>
+      <c r="A32" s="48"/>
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -4486,7 +4086,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A33" s="44"/>
+      <c r="A33" s="48"/>
       <c r="B33" t="s">
         <v>46</v>
       </c>
@@ -4536,7 +4136,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A34" s="44"/>
+      <c r="A34" s="48"/>
       <c r="B34" t="s">
         <v>34</v>
       </c>
@@ -4586,7 +4186,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A35" s="44"/>
+      <c r="A35" s="48"/>
       <c r="B35" t="s">
         <v>47</v>
       </c>
@@ -4636,7 +4236,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A36" s="44"/>
+      <c r="A36" s="48"/>
       <c r="B36" t="s">
         <v>36</v>
       </c>
@@ -4686,7 +4286,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A37" s="45"/>
+      <c r="A37" s="49"/>
       <c r="B37" t="s">
         <v>48</v>
       </c>
